--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_17_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_17_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2062426.663552361</v>
+        <v>2040678.183810646</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12062936.15886391</v>
+        <v>12062936.15886392</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4184108.078182774</v>
+        <v>4184108.078182772</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8484383.860473063</v>
+        <v>8484383.860473065</v>
       </c>
     </row>
     <row r="11">
@@ -1369,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>289.1825630108439</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>245.8645753974944</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>57.02146927219707</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>235.1178288501904</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1612,22 +1612,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>99.50249420969843</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,22 +1660,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>108.9812949757263</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>11.92774443006018</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1782,10 +1782,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>7.473968088351836</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>225.7402727320836</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1861,10 +1861,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1903,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>284.4297735342298</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>74.75769145492336</v>
       </c>
       <c r="C19" t="n">
-        <v>118.0927541397959</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2083,25 +2083,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>43.56973891764649</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>168.1158122680967</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>113.6077241489896</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>173.626889274476</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>4.443245994135945</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>121.3416305177555</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>133.2205257453331</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>173.626889274476</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>305.296554875945</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2566,13 +2566,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>149.942043503447</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2721,16 +2721,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>142.4996375676374</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>183.8751672983367</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2794,10 +2794,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>30.96855708844667</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>64.3701233831914</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2845,10 +2845,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>120.6353666620236</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>83.01174010056474</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3049,7 +3049,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,22 +3082,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>126.0380510529308</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>213.861488180113</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3195,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>35.69234359116943</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>186.2120483577851</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3249,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>39.66955728287888</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3319,19 +3319,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>168.1158122680967</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3365,7 +3365,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,22 +3426,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>4.127306183654215</v>
+        <v>163.6898441249713</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>271.4703410066326</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>331.471264392117</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>57.98576519627157</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,10 +3714,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486467</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3742,13 +3742,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>321.5063105874096</v>
+        <v>290.9161245496879</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,13 +3793,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3839,7 +3839,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>31.24123032771225</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3909,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>190.3989440635313</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3979,25 +3979,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>281.9637290473503</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>186.1590670005686</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>19.48923120238945</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>112.0808863526779</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2268.308520734406</v>
+        <v>1754.744438482647</v>
       </c>
       <c r="C11" t="n">
-        <v>1976.204921733553</v>
+        <v>1385.781921542235</v>
       </c>
       <c r="D11" t="n">
-        <v>1617.939223126803</v>
+        <v>1027.516222935485</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.150970528558</v>
+        <v>1027.516222935485</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
         <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
@@ -5068,25 +5068,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V11" t="n">
-        <v>2994.5429342656</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W11" t="n">
-        <v>2641.774278995485</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X11" t="n">
-        <v>2268.308520734406</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="Y11" t="n">
-        <v>2268.308520734406</v>
+        <v>2141.344278546769</v>
       </c>
     </row>
     <row r="12">
@@ -5096,10 +5096,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
         <v>618.1564155387305</v>
@@ -5108,46 +5108,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064582</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
         <v>2242.828302297192</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>270.9995076393838</v>
+        <v>696.2582702654239</v>
       </c>
       <c r="C13" t="n">
-        <v>270.9995076393838</v>
+        <v>527.322087337517</v>
       </c>
       <c r="D13" t="n">
-        <v>270.9995076393838</v>
+        <v>527.322087337517</v>
       </c>
       <c r="E13" t="n">
-        <v>270.9995076393838</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F13" t="n">
-        <v>124.1095601414734</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H13" t="n">
         <v>66.51211643218342</v>
@@ -5226,25 +5226,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S13" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T13" t="n">
-        <v>1513.842048484845</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U13" t="n">
-        <v>1224.739181610488</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V13" t="n">
-        <v>970.0546934046014</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W13" t="n">
-        <v>680.6375233676408</v>
+        <v>924.2478211634412</v>
       </c>
       <c r="X13" t="n">
-        <v>452.6479724696235</v>
+        <v>696.2582702654239</v>
       </c>
       <c r="Y13" t="n">
-        <v>452.6479724696235</v>
+        <v>696.2582702654239</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2345.167438673965</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="C14" t="n">
-        <v>1976.204921733553</v>
+        <v>552.807938939214</v>
       </c>
       <c r="D14" t="n">
-        <v>1617.939223126803</v>
+        <v>552.807938939214</v>
       </c>
       <c r="E14" t="n">
-        <v>1232.150970528558</v>
+        <v>167.0196863409697</v>
       </c>
       <c r="F14" t="n">
-        <v>821.1650657389509</v>
+        <v>167.0196863409697</v>
       </c>
       <c r="G14" t="n">
-        <v>406.0926155839475</v>
+        <v>167.0196863409697</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K14" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3215.315153136264</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U14" t="n">
-        <v>3215.315153136264</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V14" t="n">
-        <v>3215.315153136264</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W14" t="n">
-        <v>3215.315153136264</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X14" t="n">
-        <v>2841.849394875184</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y14" t="n">
-        <v>2731.767278738087</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="15">
@@ -5348,22 +5348,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5375,10 +5375,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
         <v>2564.909189125856</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>952.9459563751722</v>
+        <v>708.3064969624544</v>
       </c>
       <c r="C16" t="n">
-        <v>784.0097734472653</v>
+        <v>539.3703140345475</v>
       </c>
       <c r="D16" t="n">
-        <v>633.8931340349295</v>
+        <v>539.3703140345475</v>
       </c>
       <c r="E16" t="n">
-        <v>485.9800404525364</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F16" t="n">
-        <v>339.090092954626</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G16" t="n">
-        <v>171.387256329345</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L16" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N16" t="n">
         <v>1317.747152581905</v>
@@ -5457,31 +5457,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T16" t="n">
-        <v>1424.011591242373</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U16" t="n">
-        <v>1424.011591242373</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V16" t="n">
-        <v>1424.011591242373</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="W16" t="n">
-        <v>1134.594421205412</v>
+        <v>1157.088627004002</v>
       </c>
       <c r="X16" t="n">
-        <v>1134.594421205412</v>
+        <v>929.0990761059845</v>
       </c>
       <c r="Y16" t="n">
-        <v>1134.594421205412</v>
+        <v>708.3064969624544</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1491.569348694472</v>
+        <v>1888.09808975843</v>
       </c>
       <c r="C17" t="n">
-        <v>1263.548871187317</v>
+        <v>1519.135572818019</v>
       </c>
       <c r="D17" t="n">
-        <v>905.2831725805665</v>
+        <v>1160.869874211268</v>
       </c>
       <c r="E17" t="n">
-        <v>519.4949199823222</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F17" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G17" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H17" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
         <v>66.51211643218342</v>
@@ -5518,7 +5518,7 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329465</v>
@@ -5527,7 +5527,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939508</v>
@@ -5551,16 +5551,16 @@
         <v>3325.605821609171</v>
       </c>
       <c r="V17" t="n">
-        <v>2994.5429342656</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W17" t="n">
-        <v>2641.774278995485</v>
+        <v>3038.303020059443</v>
       </c>
       <c r="X17" t="n">
-        <v>2268.308520734406</v>
+        <v>2664.837261798364</v>
       </c>
       <c r="Y17" t="n">
-        <v>1878.169188758594</v>
+        <v>2274.697929822552</v>
       </c>
     </row>
     <row r="18">
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>333.7108202567946</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C19" t="n">
-        <v>214.4252100145765</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D19" t="n">
-        <v>214.4252100145765</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E19" t="n">
         <v>66.51211643218342</v>
@@ -5700,25 +5700,25 @@
         <v>1837.46409084602</v>
       </c>
       <c r="S19" t="n">
-        <v>1837.46409084602</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T19" t="n">
-        <v>1615.697475415546</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U19" t="n">
-        <v>1326.59460854119</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V19" t="n">
-        <v>1071.910120335303</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W19" t="n">
-        <v>782.4929502983421</v>
+        <v>590.8070661251686</v>
       </c>
       <c r="X19" t="n">
-        <v>554.5033994003247</v>
+        <v>362.8175152271513</v>
       </c>
       <c r="Y19" t="n">
-        <v>333.7108202567946</v>
+        <v>142.0249360836212</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>921.7704558796247</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C20" t="n">
-        <v>921.7704558796247</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D20" t="n">
-        <v>563.5047572728743</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E20" t="n">
-        <v>519.4949199823222</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F20" t="n">
-        <v>108.5090151927147</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K20" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U20" t="n">
-        <v>2755.806928794323</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="V20" t="n">
-        <v>2424.744041450752</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="W20" t="n">
-        <v>2071.975386180638</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X20" t="n">
-        <v>1698.509627919558</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y20" t="n">
-        <v>1308.370295943746</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>1072.936681635988</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>936.5735814686066</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>846.0716871064741</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>827.064395508012</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>920.7416649986293</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>1159.005863978976</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>2446.503393068412</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S21" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T21" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W21" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>644.3338566427969</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C22" t="n">
-        <v>475.3976737148901</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D22" t="n">
-        <v>360.6423967967187</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E22" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F22" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G22" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
@@ -5931,31 +5931,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S22" t="n">
-        <v>1927.294548088492</v>
+        <v>1751.913851851648</v>
       </c>
       <c r="T22" t="n">
-        <v>1705.527932658018</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U22" t="n">
-        <v>1416.425065783662</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V22" t="n">
-        <v>1161.740577577775</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W22" t="n">
-        <v>872.3234075408143</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X22" t="n">
-        <v>644.3338566427969</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y22" t="n">
-        <v>644.3338566427969</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1575.942324366272</v>
+        <v>1917.382287315189</v>
       </c>
       <c r="C23" t="n">
-        <v>1575.942324366272</v>
+        <v>1548.419770374778</v>
       </c>
       <c r="D23" t="n">
-        <v>1575.942324366272</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E23" t="n">
         <v>1190.154071768027</v>
@@ -5983,58 +5983,58 @@
         <v>364.0957168234162</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T23" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U23" t="n">
-        <v>2755.806928794325</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V23" t="n">
-        <v>2424.744041450754</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="W23" t="n">
-        <v>2071.97538618064</v>
+        <v>3067.587217616203</v>
       </c>
       <c r="X23" t="n">
-        <v>1698.50962791956</v>
+        <v>2694.121459355123</v>
       </c>
       <c r="Y23" t="n">
-        <v>1575.942324366272</v>
+        <v>2303.982127379311</v>
       </c>
     </row>
     <row r="24">
@@ -6044,46 +6044,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387301</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O24" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P24" t="n">
         <v>2407.411984886741</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>370.0144869816389</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C25" t="n">
-        <v>201.078304053732</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J25" t="n">
         <v>111.634748879119</v>
@@ -6171,28 +6171,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R25" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S25" t="n">
-        <v>1645.778206672847</v>
+        <v>1751.913851851648</v>
       </c>
       <c r="T25" t="n">
-        <v>1424.011591242373</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U25" t="n">
-        <v>1134.908724368016</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V25" t="n">
-        <v>880.2242361621296</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W25" t="n">
-        <v>590.8070661251691</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X25" t="n">
-        <v>590.8070661251691</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y25" t="n">
-        <v>370.0144869816389</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1533.918936517076</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C26" t="n">
-        <v>1164.956419576664</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D26" t="n">
-        <v>1164.956419576664</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E26" t="n">
-        <v>779.1681669784198</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F26" t="n">
-        <v>779.1681669784198</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G26" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H26" t="n">
         <v>66.51211643218342</v>
@@ -6253,25 +6253,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T26" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U26" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V26" t="n">
-        <v>2424.744041450753</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="W26" t="n">
-        <v>2071.975386180639</v>
+        <v>2719.306689612893</v>
       </c>
       <c r="X26" t="n">
-        <v>1920.518776581197</v>
+        <v>2345.840931351813</v>
       </c>
       <c r="Y26" t="n">
-        <v>1920.518776581197</v>
+        <v>1955.701599376001</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C27" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D27" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E27" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F27" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G27" t="n">
-        <v>936.5735814686075</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H27" t="n">
-        <v>846.071687106475</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I27" t="n">
-        <v>827.0643955080129</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J27" t="n">
-        <v>920.7416649986303</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L27" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M27" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N27" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O27" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P27" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q27" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R27" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S27" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T27" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V27" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W27" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y27" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>822.6111008985771</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C28" t="n">
-        <v>653.6749179706702</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D28" t="n">
-        <v>503.5582785583345</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E28" t="n">
-        <v>503.5582785583345</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F28" t="n">
-        <v>356.6683310604241</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G28" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H28" t="n">
         <v>66.51211643218342</v>
@@ -6408,28 +6408,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R28" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S28" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T28" t="n">
-        <v>1837.464090846021</v>
+        <v>1741.562055867951</v>
       </c>
       <c r="U28" t="n">
-        <v>1548.361223971664</v>
+        <v>1452.459188993594</v>
       </c>
       <c r="V28" t="n">
-        <v>1293.676735765777</v>
+        <v>1197.774700787707</v>
       </c>
       <c r="W28" t="n">
-        <v>1004.259565728817</v>
+        <v>908.3575307507468</v>
       </c>
       <c r="X28" t="n">
-        <v>1004.259565728817</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="Y28" t="n">
-        <v>1004.259565728817</v>
+        <v>680.3679798527295</v>
       </c>
     </row>
     <row r="29">
@@ -6439,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1252.833343223196</v>
+        <v>1712.341567565139</v>
       </c>
       <c r="C29" t="n">
-        <v>1221.551972426786</v>
+        <v>1343.379050624727</v>
       </c>
       <c r="D29" t="n">
-        <v>863.2862738200351</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E29" t="n">
-        <v>477.498021221791</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F29" t="n">
-        <v>66.51211643218342</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R29" t="n">
         <v>3325.605821609171</v>
@@ -6493,22 +6493,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T29" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U29" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V29" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W29" t="n">
-        <v>2403.03827352421</v>
+        <v>2862.546497866152</v>
       </c>
       <c r="X29" t="n">
-        <v>2029.57251526313</v>
+        <v>2489.080739605072</v>
       </c>
       <c r="Y29" t="n">
-        <v>1639.433183287318</v>
+        <v>2098.941407629261</v>
       </c>
     </row>
     <row r="30">
@@ -6518,31 +6518,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K30" t="n">
         <v>398.4535849031479</v>
@@ -6575,7 +6575,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V30" t="n">
         <v>1779.608347199865</v>
@@ -6584,10 +6584,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2322.222117337204</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="C31" t="n">
-        <v>2153.285934409297</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="D31" t="n">
-        <v>2003.169294996962</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="E31" t="n">
-        <v>1855.256201414568</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="F31" t="n">
-        <v>1708.366253916658</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="G31" t="n">
-        <v>1708.366253916658</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="H31" t="n">
-        <v>1562.149067134516</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I31" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J31" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K31" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L31" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M31" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N31" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O31" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P31" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q31" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R31" t="n">
-        <v>3325.605821609171</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S31" t="n">
-        <v>3325.605821609171</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T31" t="n">
-        <v>3325.605821609171</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U31" t="n">
-        <v>3036.502954734814</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V31" t="n">
-        <v>3036.502954734814</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W31" t="n">
-        <v>2952.652712208991</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X31" t="n">
-        <v>2724.663161310974</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="Y31" t="n">
-        <v>2503.870582167444</v>
+        <v>370.0144869816389</v>
       </c>
     </row>
     <row r="32">
@@ -6676,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1548.419770374778</v>
+        <v>1959.379186075721</v>
       </c>
       <c r="C32" t="n">
-        <v>1548.419770374778</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D32" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E32" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F32" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G32" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O32" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R32" t="n">
         <v>3325.605821609171</v>
@@ -6730,22 +6730,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T32" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U32" t="n">
-        <v>2992.316911313665</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V32" t="n">
-        <v>2661.254023970094</v>
+        <v>3109.584116376734</v>
       </c>
       <c r="W32" t="n">
-        <v>2308.48536869998</v>
+        <v>3109.584116376734</v>
       </c>
       <c r="X32" t="n">
-        <v>1935.019610438899</v>
+        <v>2736.118358115654</v>
       </c>
       <c r="Y32" t="n">
-        <v>1935.019610438899</v>
+        <v>2345.979026139843</v>
       </c>
     </row>
     <row r="33">
@@ -6755,31 +6755,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K33" t="n">
         <v>398.4535849031479</v>
@@ -6812,7 +6812,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V33" t="n">
         <v>1779.608347199865</v>
@@ -6821,10 +6821,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>880.2242361621296</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C34" t="n">
-        <v>711.2880532342227</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D34" t="n">
-        <v>711.2880532342227</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E34" t="n">
-        <v>563.3749596518296</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F34" t="n">
-        <v>416.4850121539192</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G34" t="n">
-        <v>248.7821755286382</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H34" t="n">
-        <v>102.564988746496</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I34" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J34" t="n">
         <v>111.634748879119</v>
@@ -6882,28 +6882,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R34" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S34" t="n">
-        <v>1645.778206672847</v>
+        <v>1739.201569949316</v>
       </c>
       <c r="T34" t="n">
-        <v>1424.011591242373</v>
+        <v>1517.434954518842</v>
       </c>
       <c r="U34" t="n">
-        <v>1134.908724368016</v>
+        <v>1228.332087644485</v>
       </c>
       <c r="V34" t="n">
-        <v>880.2242361621296</v>
+        <v>973.6475994385985</v>
       </c>
       <c r="W34" t="n">
-        <v>880.2242361621296</v>
+        <v>684.2304294016378</v>
       </c>
       <c r="X34" t="n">
-        <v>880.2242361621296</v>
+        <v>456.2408785036205</v>
       </c>
       <c r="Y34" t="n">
-        <v>880.2242361621296</v>
+        <v>235.4482993600903</v>
       </c>
     </row>
     <row r="35">
@@ -6928,37 +6928,37 @@
         <v>481.5845665871869</v>
       </c>
       <c r="G35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
@@ -6967,22 +6967,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T35" t="n">
-        <v>3119.628073993394</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U35" t="n">
-        <v>3119.628073993394</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V35" t="n">
-        <v>2788.565186649823</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W35" t="n">
-        <v>2435.796531379709</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X35" t="n">
-        <v>2435.796531379709</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y35" t="n">
-        <v>2045.657199403897</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="36">
@@ -6992,31 +6992,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
@@ -7049,7 +7049,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7058,10 +7058,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>680.6375233676413</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="C37" t="n">
-        <v>511.7013404397344</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="D37" t="n">
-        <v>511.7013404397344</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="E37" t="n">
-        <v>363.7882468573413</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="F37" t="n">
-        <v>216.8982993594309</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="G37" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7137,10 +7137,10 @@
         <v>680.6375233676413</v>
       </c>
       <c r="X37" t="n">
-        <v>680.6375233676413</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y37" t="n">
-        <v>680.6375233676413</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1514.348043559526</v>
+        <v>1822.632236038043</v>
       </c>
       <c r="C38" t="n">
-        <v>1145.385526619114</v>
+        <v>1822.632236038043</v>
       </c>
       <c r="D38" t="n">
-        <v>787.119828012364</v>
+        <v>1464.366537431292</v>
       </c>
       <c r="E38" t="n">
-        <v>401.3315754141198</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F38" t="n">
-        <v>401.3315754141198</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G38" t="n">
-        <v>66.51211643218343</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T38" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U38" t="n">
-        <v>2961.784676410103</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V38" t="n">
-        <v>2630.721789066532</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W38" t="n">
-        <v>2277.953133796418</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X38" t="n">
-        <v>1904.487375535338</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y38" t="n">
-        <v>1514.348043559526</v>
+        <v>2209.232076102165</v>
       </c>
     </row>
     <row r="39">
@@ -7244,16 +7244,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
         <v>398.4535849031479</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>271.9735439263277</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C40" t="n">
-        <v>271.9735439263277</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D40" t="n">
-        <v>271.9735439263277</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E40" t="n">
-        <v>271.9735439263277</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F40" t="n">
-        <v>125.0835964284173</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G40" t="n">
-        <v>125.0835964284173</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H40" t="n">
-        <v>125.0835964284173</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
         <v>111.634748879119</v>
@@ -7362,22 +7362,22 @@
         <v>1735.608663915319</v>
       </c>
       <c r="T40" t="n">
-        <v>1735.608663915319</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U40" t="n">
-        <v>1446.505797040963</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V40" t="n">
-        <v>1191.821308835076</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W40" t="n">
-        <v>902.4041387981149</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X40" t="n">
-        <v>674.4145879000976</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y40" t="n">
-        <v>453.6220087565674</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1175.30093260579</v>
+        <v>1458.811090838975</v>
       </c>
       <c r="C41" t="n">
-        <v>806.3384156653785</v>
+        <v>1458.811090838975</v>
       </c>
       <c r="D41" t="n">
-        <v>481.5845665871869</v>
+        <v>1164.956419576664</v>
       </c>
       <c r="E41" t="n">
-        <v>481.5845665871869</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="F41" t="n">
-        <v>481.5845665871869</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G41" t="n">
-        <v>66.51211643218343</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H41" t="n">
         <v>66.51211643218343</v>
@@ -7414,7 +7414,7 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329465</v>
@@ -7426,7 +7426,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P41" t="n">
         <v>3018.302393296687</v>
@@ -7441,22 +7441,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T41" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U41" t="n">
-        <v>3009.337405520489</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V41" t="n">
-        <v>2678.274518176918</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="W41" t="n">
-        <v>2325.505862906803</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="X41" t="n">
-        <v>1952.040104645724</v>
+        <v>2235.550262878909</v>
       </c>
       <c r="Y41" t="n">
-        <v>1561.900772669912</v>
+        <v>1845.410930903097</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
         <v>66.51211643218343</v>
@@ -7496,7 +7496,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7523,7 +7523,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7532,10 +7532,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>954.234295824721</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="C43" t="n">
-        <v>922.6774975139006</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="D43" t="n">
-        <v>772.5608581015648</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E43" t="n">
-        <v>624.6477645191717</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F43" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G43" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H43" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I43" t="n">
         <v>66.51211643218343</v>
@@ -7593,28 +7593,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T43" t="n">
-        <v>1645.778206672847</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U43" t="n">
-        <v>1356.675339798491</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V43" t="n">
-        <v>1356.675339798491</v>
+        <v>1224.102900062924</v>
       </c>
       <c r="W43" t="n">
-        <v>1356.675339798491</v>
+        <v>934.6857300259632</v>
       </c>
       <c r="X43" t="n">
-        <v>1356.675339798491</v>
+        <v>934.6857300259632</v>
       </c>
       <c r="Y43" t="n">
-        <v>1135.882760654961</v>
+        <v>713.893150882433</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1506.363819949362</v>
+        <v>1303.529887077737</v>
       </c>
       <c r="C44" t="n">
-        <v>1506.363819949362</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D44" t="n">
-        <v>1148.098121342611</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E44" t="n">
-        <v>762.3098687443671</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F44" t="n">
-        <v>351.3239639547596</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G44" t="n">
-        <v>351.3239639547596</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218345</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
         <v>255.3912473912089</v>
@@ -7660,40 +7660,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T44" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U44" t="n">
-        <v>3009.337405520489</v>
+        <v>3137.566359992436</v>
       </c>
       <c r="V44" t="n">
-        <v>3009.337405520489</v>
+        <v>2806.503472648865</v>
       </c>
       <c r="W44" t="n">
-        <v>2656.568750250375</v>
+        <v>2453.73481737875</v>
       </c>
       <c r="X44" t="n">
-        <v>2283.102991989295</v>
+        <v>2080.269059117671</v>
       </c>
       <c r="Y44" t="n">
-        <v>1892.963660013484</v>
+        <v>1690.129727141859</v>
       </c>
     </row>
     <row r="45">
@@ -7703,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D45" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064549</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7760,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7769,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>680.3679798527295</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="C46" t="n">
-        <v>511.4317969248226</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="D46" t="n">
-        <v>361.3151575124869</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="E46" t="n">
-        <v>213.4020639300938</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F46" t="n">
-        <v>66.51211643218345</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G46" t="n">
-        <v>66.51211643218345</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218345</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
         <v>111.634748879119</v>
@@ -7830,28 +7830,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1645.778206672847</v>
+        <v>1907.608455964867</v>
       </c>
       <c r="T46" t="n">
-        <v>1424.011591242373</v>
+        <v>1685.841840534393</v>
       </c>
       <c r="U46" t="n">
-        <v>1424.011591242373</v>
+        <v>1396.738973660037</v>
       </c>
       <c r="V46" t="n">
-        <v>1310.798574724517</v>
+        <v>1142.05448545415</v>
       </c>
       <c r="W46" t="n">
-        <v>1310.798574724517</v>
+        <v>852.637315417189</v>
       </c>
       <c r="X46" t="n">
-        <v>1082.809023826499</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="Y46" t="n">
-        <v>862.0164446829692</v>
+        <v>624.6477645191717</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>111.3760925029325</v>
+        <v>111.3760925029323</v>
       </c>
       <c r="K2" t="n">
-        <v>115.6728628570358</v>
+        <v>115.6728628570356</v>
       </c>
       <c r="L2" t="n">
-        <v>106.2279079411528</v>
+        <v>106.2279079411526</v>
       </c>
       <c r="M2" t="n">
-        <v>86.20968475950781</v>
+        <v>86.2096847595075</v>
       </c>
       <c r="N2" t="n">
-        <v>82.94423508449555</v>
+        <v>82.9442350844952</v>
       </c>
       <c r="O2" t="n">
-        <v>91.79185002470294</v>
+        <v>91.79185002470263</v>
       </c>
       <c r="P2" t="n">
-        <v>113.1917161337042</v>
+        <v>113.191716133704</v>
       </c>
       <c r="Q2" t="n">
-        <v>133.6616048283646</v>
+        <v>133.6616048283644</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8057,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>85.34276391131272</v>
+        <v>85.34276391131263</v>
       </c>
       <c r="K3" t="n">
-        <v>66.92010932096004</v>
+        <v>66.92010932095988</v>
       </c>
       <c r="L3" t="n">
-        <v>43.19189982519249</v>
+        <v>43.19189982519228</v>
       </c>
       <c r="M3" t="n">
-        <v>30.85051777249889</v>
+        <v>30.85051777249863</v>
       </c>
       <c r="N3" t="n">
-        <v>17.11285239577309</v>
+        <v>17.11285239577283</v>
       </c>
       <c r="O3" t="n">
-        <v>38.09915424948197</v>
+        <v>38.09915424948174</v>
       </c>
       <c r="P3" t="n">
-        <v>50.10627990666575</v>
+        <v>50.10627990666556</v>
       </c>
       <c r="Q3" t="n">
-        <v>83.91815189430238</v>
+        <v>83.91815189430226</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8139,22 +8139,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>86.23379249476886</v>
+        <v>86.23379249476876</v>
       </c>
       <c r="L4" t="n">
-        <v>80.14168867079337</v>
+        <v>80.14168867079326</v>
       </c>
       <c r="M4" t="n">
-        <v>81.20697904562992</v>
+        <v>81.20697904562979</v>
       </c>
       <c r="N4" t="n">
-        <v>71.33916373595474</v>
+        <v>71.33916373595463</v>
       </c>
       <c r="O4" t="n">
-        <v>86.41153592235779</v>
+        <v>86.41153592235767</v>
       </c>
       <c r="P4" t="n">
-        <v>93.19451333315405</v>
+        <v>93.19451333315395</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8221,16 +8221,16 @@
         <v>100.0299464227919</v>
       </c>
       <c r="L5" t="n">
-        <v>86.82148686318189</v>
+        <v>86.82148686318186</v>
       </c>
       <c r="M5" t="n">
-        <v>64.61630209323866</v>
+        <v>64.61630209323863</v>
       </c>
       <c r="N5" t="n">
         <v>61.00144891149961</v>
       </c>
       <c r="O5" t="n">
-        <v>71.07189926570237</v>
+        <v>71.0718992657024</v>
       </c>
       <c r="P5" t="n">
         <v>95.50771753390021</v>
@@ -8315,7 +8315,7 @@
         <v>37.54182911310821</v>
       </c>
       <c r="Q6" t="n">
-        <v>75.5191492782957</v>
+        <v>75.51914927829571</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8382,7 +8382,7 @@
         <v>71.94053294496764</v>
       </c>
       <c r="M7" t="n">
-        <v>72.56001021962936</v>
+        <v>72.56001021962938</v>
       </c>
       <c r="N7" t="n">
         <v>62.89780050171086</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -22561,7 +22561,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>14.48187344321937</v>
+        <v>14.48187344321936</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22798,7 +22798,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>14.35889816588482</v>
+        <v>14.3588981658848</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23257,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>76.09032876016363</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>161.011470344217</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396202</v>
@@ -23323,10 +23323,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23430,10 +23430,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>109.0043389868312</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983812</v>
@@ -23466,7 +23466,7 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>51.40516948640064</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23500,22 +23500,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>195.105270177622</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,22 +23548,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>277.2566436803273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>134.506218216509</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>137.281046825969</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23734,7 +23734,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>139.5326190389239</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23791,10 +23791,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>64.81119518318326</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>105.0742887270139</v>
       </c>
       <c r="C19" t="n">
-        <v>49.15406695883195</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23971,25 +23971,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>338.3606311546153</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>82.87935969080525</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>35.00774886922275</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24144,10 +24144,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696594</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>344.797722723277</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>264.8963081382981</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>15.39494727287928</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>16.14213605696594</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>77.43728678753558</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24454,13 +24454,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>219.789057175022</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24609,16 +24609,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>23.52617069139077</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>35.67378197783253</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24682,10 +24682,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>334.3043346825609</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>290.3129182374915</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24694,7 +24694,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>294.6077643873205</v>
@@ -24733,10 +24733,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>24.11964825229715</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>203.5112582360263</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24919,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,22 +24970,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>124.9571209059712</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>113.8907702900219</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25083,19 +25083,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>60.66007681866866</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>3.556976973656759</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>343.0642843806017</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25207,19 +25207,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>181.1251564493163</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25314,22 +25314,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>161.898502075374</v>
+        <v>2.335964134056951</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>110.4600290656292</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>79.4504612613365</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25560,7 +25560,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
@@ -25569,7 +25569,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>38.36665521356652</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,10 +25602,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>16.14213605696614</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25630,13 +25630,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>33.17673103327331</v>
+        <v>63.76691707099502</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -25681,13 +25681,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>136.0055907709156</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>61.73869926029673</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25867,25 +25867,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>12.64403533997012</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>64.83610495833341</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>170.2797941290524</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>140.0567569711502</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>864603.8640285347</v>
+        <v>864603.8640285346</v>
       </c>
     </row>
     <row r="3">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>692363.2453470508</v>
+        <v>692363.2453470509</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>692363.2453470508</v>
+        <v>692363.2453470509</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>692363.2453470508</v>
+        <v>692363.2453470509</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>692363.2453470508</v>
+        <v>692363.2453470511</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>692363.2453470509</v>
+        <v>692363.2453470511</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>692363.2453470508</v>
+        <v>692363.2453470509</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>692363.2453470509</v>
+        <v>692363.2453470511</v>
       </c>
     </row>
     <row r="16">
@@ -26316,22 +26316,22 @@
         <v>614506.2596228722</v>
       </c>
       <c r="C2" t="n">
-        <v>614513.6012469289</v>
+        <v>614513.6012469288</v>
       </c>
       <c r="D2" t="n">
-        <v>614519.845171983</v>
+        <v>614519.8451719831</v>
       </c>
       <c r="E2" t="n">
         <v>511495.6484563808</v>
       </c>
       <c r="F2" t="n">
-        <v>511495.6484563806</v>
+        <v>511495.6484563808</v>
       </c>
       <c r="G2" t="n">
-        <v>511495.6484563807</v>
+        <v>511495.6484563809</v>
       </c>
       <c r="H2" t="n">
-        <v>511495.6484563806</v>
+        <v>511495.6484563808</v>
       </c>
       <c r="I2" t="n">
         <v>511495.6484563808</v>
@@ -26340,22 +26340,22 @@
         <v>511495.6484563809</v>
       </c>
       <c r="K2" t="n">
-        <v>511495.6484563809</v>
+        <v>511495.6484563808</v>
       </c>
       <c r="L2" t="n">
+        <v>511495.6484563808</v>
+      </c>
+      <c r="M2" t="n">
         <v>511495.6484563807</v>
       </c>
-      <c r="M2" t="n">
-        <v>511495.6484563809</v>
-      </c>
       <c r="N2" t="n">
-        <v>511495.6484563809</v>
+        <v>511495.6484563808</v>
       </c>
       <c r="O2" t="n">
-        <v>511495.648456381</v>
+        <v>511495.6484563808</v>
       </c>
       <c r="P2" t="n">
-        <v>511495.6484563811</v>
+        <v>511495.6484563808</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>196760.0786190585</v>
+        <v>196760.0786190589</v>
       </c>
       <c r="C3" t="n">
-        <v>27855.40645598324</v>
+        <v>27855.40645598283</v>
       </c>
       <c r="D3" t="n">
         <v>22280.77012981693</v>
@@ -26377,16 +26377,16 @@
         <v>914243.4502001544</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>2.920821771112969e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>207188.568292073</v>
+        <v>207188.5682920729</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,10 +26426,10 @@
         <v>365935.2983003609</v>
       </c>
       <c r="E4" t="n">
+        <v>10990.29103211611</v>
+      </c>
+      <c r="F4" t="n">
         <v>10990.29103211609</v>
-      </c>
-      <c r="F4" t="n">
-        <v>10990.29103211611</v>
       </c>
       <c r="G4" t="n">
         <v>10990.29103211611</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>38078.94064598078</v>
+        <v>38078.94064598079</v>
       </c>
       <c r="C5" t="n">
         <v>38745.80483114667</v>
@@ -26481,13 +26481,13 @@
         <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
         <v>74306.3405613933</v>
@@ -26511,7 +26511,7 @@
         <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.3405613933</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1254.63398496325</v>
+        <v>-1297.136244141677</v>
       </c>
       <c r="C6" t="n">
-        <v>175230.9825968891</v>
+        <v>175188.7250585133</v>
       </c>
       <c r="D6" t="n">
-        <v>186990.8153849245</v>
+        <v>186948.7659773836</v>
       </c>
       <c r="E6" t="n">
-        <v>-488044.433337283</v>
+        <v>-491520.6226353442</v>
       </c>
       <c r="F6" t="n">
-        <v>426199.0168628712</v>
+        <v>422722.8275648102</v>
       </c>
       <c r="G6" t="n">
-        <v>426199.0168628713</v>
+        <v>422722.8275648106</v>
       </c>
       <c r="H6" t="n">
-        <v>426199.0168628712</v>
+        <v>422722.8275648102</v>
       </c>
       <c r="I6" t="n">
-        <v>426199.0168628711</v>
+        <v>422722.8275648103</v>
       </c>
       <c r="J6" t="n">
-        <v>426199.0168628715</v>
+        <v>422722.8275648104</v>
       </c>
       <c r="K6" t="n">
-        <v>426199.0168628715</v>
+        <v>422722.8275648103</v>
       </c>
       <c r="L6" t="n">
-        <v>426199.0168628713</v>
+        <v>422722.8275648103</v>
       </c>
       <c r="M6" t="n">
-        <v>219010.4485707984</v>
+        <v>215534.2592727374</v>
       </c>
       <c r="N6" t="n">
-        <v>426199.0168628715</v>
+        <v>422722.8275648103</v>
       </c>
       <c r="O6" t="n">
-        <v>426199.0168628716</v>
+        <v>422722.8275648103</v>
       </c>
       <c r="P6" t="n">
-        <v>426199.0168628716</v>
+        <v>422722.8275648103</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>204.1899378890265</v>
+        <v>204.189937889027</v>
       </c>
       <c r="C3" t="n">
         <v>234.7800381259942</v>
@@ -26801,37 +26801,37 @@
         <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="J4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="L4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="M4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>831.4014554022926</v>
-      </c>
-      <c r="M4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="N4" t="n">
-        <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
     </row>
   </sheetData>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>204.1899378890265</v>
+        <v>204.189937889027</v>
       </c>
       <c r="C3" t="n">
-        <v>30.59010023696768</v>
+        <v>30.59010023696722</v>
       </c>
       <c r="D3" t="n">
         <v>26.01635439147063</v>
@@ -26971,16 +26971,16 @@
         <v>828.9803080758332</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>331.0681279392606</v>
       </c>
       <c r="I2" t="n">
-        <v>178.8295274378765</v>
+        <v>178.8295274378764</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>98.30551518367606</v>
+        <v>98.30551518367594</v>
       </c>
       <c r="S2" t="n">
-        <v>190.3146295474667</v>
+        <v>190.3146295474666</v>
       </c>
       <c r="T2" t="n">
         <v>219.5025170893204</v>
@@ -27478,7 +27478,7 @@
         <v>107.9936872248772</v>
       </c>
       <c r="I3" t="n">
-        <v>74.27501952661453</v>
+        <v>74.2750195266145</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.88884584361426</v>
+        <v>72.88884584361421</v>
       </c>
       <c r="S3" t="n">
         <v>163.5252051891206</v>
@@ -27560,7 +27560,7 @@
         <v>144.3773550168173</v>
       </c>
       <c r="J4" t="n">
-        <v>67.32663672383738</v>
+        <v>67.32663672383732</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>55.32936263045139</v>
+        <v>55.32936263045131</v>
       </c>
       <c r="R4" t="n">
         <v>160.7372695280035</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8208640719156839</v>
+        <v>0.8208640719156857</v>
       </c>
       <c r="H2" t="n">
-        <v>8.406674176506499</v>
+        <v>8.406674176506518</v>
       </c>
       <c r="I2" t="n">
-        <v>31.64636213252943</v>
+        <v>31.6463621325295</v>
       </c>
       <c r="J2" t="n">
-        <v>69.66981202375383</v>
+        <v>69.66981202375399</v>
       </c>
       <c r="K2" t="n">
-        <v>104.4169881879448</v>
+        <v>104.416988187945</v>
       </c>
       <c r="L2" t="n">
-        <v>129.5385070288344</v>
+        <v>129.5385070288347</v>
       </c>
       <c r="M2" t="n">
-        <v>144.1365484677649</v>
+        <v>144.1365484677652</v>
       </c>
       <c r="N2" t="n">
-        <v>146.4688285120954</v>
+        <v>146.4688285120957</v>
       </c>
       <c r="O2" t="n">
-        <v>138.3063613969838</v>
+        <v>138.3063613969841</v>
       </c>
       <c r="P2" t="n">
-        <v>118.0412796215653</v>
+        <v>118.0412796215656</v>
       </c>
       <c r="Q2" t="n">
-        <v>88.64408504608487</v>
+        <v>88.64408504608507</v>
       </c>
       <c r="R2" t="n">
-        <v>51.56360275747362</v>
+        <v>51.56360275747374</v>
       </c>
       <c r="S2" t="n">
-        <v>18.70544003877867</v>
+        <v>18.70544003877871</v>
       </c>
       <c r="T2" t="n">
-        <v>3.593332474810908</v>
+        <v>3.593332474810916</v>
       </c>
       <c r="U2" t="n">
-        <v>0.06566912575325469</v>
+        <v>0.06566912575325484</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4392009984782835</v>
+        <v>0.4392009984782844</v>
       </c>
       <c r="H3" t="n">
-        <v>4.241757011619212</v>
+        <v>4.241757011619221</v>
       </c>
       <c r="I3" t="n">
-        <v>15.12161332480055</v>
+        <v>15.12161332480058</v>
       </c>
       <c r="J3" t="n">
-        <v>41.49486275535397</v>
+        <v>41.49486275535406</v>
       </c>
       <c r="K3" t="n">
-        <v>70.92132965339896</v>
+        <v>70.92132965339911</v>
       </c>
       <c r="L3" t="n">
-        <v>95.36247995468169</v>
+        <v>95.3624799546819</v>
       </c>
       <c r="M3" t="n">
-        <v>111.2835161495194</v>
+        <v>111.2835161495197</v>
       </c>
       <c r="N3" t="n">
-        <v>114.2288596875602</v>
+        <v>114.2288596875605</v>
       </c>
       <c r="O3" t="n">
-        <v>104.4970901949625</v>
+        <v>104.4970901949627</v>
       </c>
       <c r="P3" t="n">
-        <v>83.8681275076645</v>
+        <v>83.86812750766468</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.06362219171913</v>
+        <v>56.06362219171926</v>
       </c>
       <c r="R3" t="n">
-        <v>27.26898830902887</v>
+        <v>27.26898830902893</v>
       </c>
       <c r="S3" t="n">
-        <v>8.157965914717233</v>
+        <v>8.157965914717252</v>
       </c>
       <c r="T3" t="n">
-        <v>1.770288235094484</v>
+        <v>1.770288235094488</v>
       </c>
       <c r="U3" t="n">
-        <v>0.02889480253146603</v>
+        <v>0.02889480253146609</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3682113634064412</v>
+        <v>0.368211363406442</v>
       </c>
       <c r="H4" t="n">
-        <v>3.273733758286361</v>
+        <v>3.273733758286369</v>
       </c>
       <c r="I4" t="n">
-        <v>11.07311991044098</v>
+        <v>11.07311991044101</v>
       </c>
       <c r="J4" t="n">
-        <v>26.03254339283539</v>
+        <v>26.03254339283545</v>
       </c>
       <c r="K4" t="n">
-        <v>42.77946567576652</v>
+        <v>42.77946567576662</v>
       </c>
       <c r="L4" t="n">
-        <v>54.74298761044491</v>
+        <v>54.74298761044503</v>
       </c>
       <c r="M4" t="n">
-        <v>57.71880490197513</v>
+        <v>57.71880490197526</v>
       </c>
       <c r="N4" t="n">
-        <v>56.34638072927844</v>
+        <v>56.34638072927857</v>
       </c>
       <c r="O4" t="n">
-        <v>52.045002529485</v>
+        <v>52.04500252948512</v>
       </c>
       <c r="P4" t="n">
-        <v>44.53349071599357</v>
+        <v>44.53349071599366</v>
       </c>
       <c r="Q4" t="n">
-        <v>30.832680621243</v>
+        <v>30.83268062124307</v>
       </c>
       <c r="R4" t="n">
-        <v>16.55612184916598</v>
+        <v>16.55612184916601</v>
       </c>
       <c r="S4" t="n">
-        <v>6.416919851364978</v>
+        <v>6.416919851364992</v>
       </c>
       <c r="T4" t="n">
-        <v>1.573266734554794</v>
+        <v>1.573266734554797</v>
       </c>
       <c r="U4" t="n">
-        <v>0.02008425618580591</v>
+        <v>0.02008425618580595</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31293,7 +31293,7 @@
         <v>120.0599046221887</v>
       </c>
       <c r="L5" t="n">
-        <v>148.9449281068053</v>
+        <v>148.9449281068054</v>
       </c>
       <c r="M5" t="n">
         <v>165.7299311340341</v>
@@ -31302,7 +31302,7 @@
         <v>168.4116146850913</v>
       </c>
       <c r="O5" t="n">
-        <v>159.0263121559844</v>
+        <v>159.0263121559843</v>
       </c>
       <c r="P5" t="n">
         <v>135.7252782213693</v>
@@ -31317,7 +31317,7 @@
         <v>21.50773917103957</v>
       </c>
       <c r="T5" t="n">
-        <v>4.131656751342872</v>
+        <v>4.131656751342871</v>
       </c>
       <c r="U5" t="n">
         <v>0.07550714794001816</v>
@@ -31387,7 +31387,7 @@
         <v>96.43257830122204</v>
       </c>
       <c r="Q6" t="n">
-        <v>64.46262480772582</v>
+        <v>64.4626248077258</v>
       </c>
       <c r="R6" t="n">
         <v>31.35420961992052</v>
@@ -31436,7 +31436,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4233738392435961</v>
+        <v>0.423373839243596</v>
       </c>
       <c r="H7" t="n">
         <v>3.764178316183975</v>
@@ -31454,7 +31454,7 @@
         <v>62.94414333627064</v>
       </c>
       <c r="M7" t="n">
-        <v>66.36577372797569</v>
+        <v>66.36577372797568</v>
       </c>
       <c r="N7" t="n">
         <v>64.78774396352233</v>
@@ -31466,13 +31466,13 @@
         <v>51.20514142997091</v>
       </c>
       <c r="Q7" t="n">
-        <v>35.45178575702512</v>
+        <v>35.45178575702513</v>
       </c>
       <c r="R7" t="n">
         <v>19.03642735362569</v>
       </c>
       <c r="S7" t="n">
-        <v>7.378251362090666</v>
+        <v>7.378251362090667</v>
       </c>
       <c r="T7" t="n">
         <v>1.808960949495364</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33037,7 +33037,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
         <v>557.708647897025</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34216,7 +34216,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
         <v>593.9283018233475</v>
@@ -34380,7 +34380,7 @@
         <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095038</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
         <v>738.1512123099059</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222434</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36685,7 +36685,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
         <v>415.1124034525806</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37864,7 +37864,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
         <v>451.7942679013292</v>
@@ -38028,7 +38028,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129129</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
         <v>508.0530008882191</v>
@@ -38040,7 +38040,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222526</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
